--- a/public/archivos/MPN.xlsx
+++ b/public/archivos/MPN.xlsx
@@ -403,7 +403,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -419,6 +419,9 @@
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -447,13 +450,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf quotePrefix="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -729,7 +738,7 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2">
@@ -769,7 +778,7 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2">
@@ -809,7 +818,7 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2">
@@ -849,7 +858,7 @@
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2">
@@ -889,7 +898,7 @@
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2">
@@ -929,7 +938,7 @@
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2">
@@ -969,7 +978,7 @@
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="2">
@@ -1009,7 +1018,7 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2">
@@ -1049,7 +1058,7 @@
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="2">
@@ -1089,7 +1098,7 @@
       <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="2">
@@ -1129,7 +1138,7 @@
       <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="2">
@@ -1169,7 +1178,7 @@
       <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="2">
@@ -1209,7 +1218,7 @@
       <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="2">
@@ -1249,7 +1258,7 @@
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="2">
@@ -1289,7 +1298,7 @@
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="2">
@@ -1329,7 +1338,7 @@
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="2">
@@ -1369,7 +1378,7 @@
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="2">
@@ -1409,7 +1418,7 @@
       <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="2">
@@ -1449,7 +1458,7 @@
       <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="2">
@@ -1489,7 +1498,7 @@
       <c r="C21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="2">
@@ -1529,7 +1538,7 @@
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="2">
@@ -1569,7 +1578,7 @@
       <c r="C23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="2">
@@ -1609,7 +1618,7 @@
       <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="2">
@@ -1649,7 +1658,7 @@
       <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="2">
@@ -1689,7 +1698,7 @@
       <c r="C26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="2">
@@ -1729,7 +1738,7 @@
       <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="2">
@@ -1769,7 +1778,7 @@
       <c r="C28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="2">
@@ -1809,7 +1818,7 @@
       <c r="C29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="2">
@@ -1849,7 +1858,7 @@
       <c r="C30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E30" s="2">
@@ -1889,7 +1898,7 @@
       <c r="C31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="2">
@@ -1929,7 +1938,7 @@
       <c r="C32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E32" s="2">
@@ -1969,7 +1978,7 @@
       <c r="C33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E33" s="2">
@@ -2009,7 +2018,7 @@
       <c r="C34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E34" s="2">
@@ -2049,7 +2058,7 @@
       <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E35" s="2">
@@ -2089,7 +2098,7 @@
       <c r="C36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E36" s="2">
@@ -2129,7 +2138,7 @@
       <c r="C37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="2">
@@ -2169,7 +2178,7 @@
       <c r="C38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E38" s="2">
@@ -2209,7 +2218,7 @@
       <c r="C39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="2">
@@ -2249,7 +2258,7 @@
       <c r="C40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E40" s="2">
@@ -2289,7 +2298,7 @@
       <c r="C41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="2">
@@ -2329,7 +2338,7 @@
       <c r="C42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="2">
@@ -2369,7 +2378,7 @@
       <c r="C43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E43" s="2">
@@ -2409,7 +2418,7 @@
       <c r="C44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="2">
@@ -2449,7 +2458,7 @@
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="2">
@@ -2489,7 +2498,7 @@
       <c r="C46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="2">
@@ -2529,7 +2538,7 @@
       <c r="C47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E47" s="2">
@@ -2569,7 +2578,7 @@
       <c r="C48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E48" s="2">
@@ -2609,7 +2618,7 @@
       <c r="C49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E49" s="2">
@@ -2649,7 +2658,7 @@
       <c r="C50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E50" s="2">
@@ -2689,7 +2698,7 @@
       <c r="C51" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E51" s="2">
@@ -2729,7 +2738,7 @@
       <c r="C52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="2">
@@ -2769,7 +2778,7 @@
       <c r="C53" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E53" s="2">
@@ -2809,7 +2818,7 @@
       <c r="C54" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E54" s="2">
@@ -2849,7 +2858,7 @@
       <c r="C55" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="2">
@@ -2889,7 +2898,7 @@
       <c r="C56" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E56" s="2">
@@ -2929,7 +2938,7 @@
       <c r="C57" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E57" s="2">
@@ -2969,7 +2978,7 @@
       <c r="C58" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E58" s="2">
@@ -3009,7 +3018,7 @@
       <c r="C59" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E59" s="2">
@@ -3049,7 +3058,7 @@
       <c r="C60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="2">
@@ -3089,7 +3098,7 @@
       <c r="C61" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="5" t="s">
         <v>91</v>
       </c>
       <c r="E61" s="2">
@@ -3129,7 +3138,7 @@
       <c r="C62" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E62" s="2">
@@ -3169,7 +3178,7 @@
       <c r="C63" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E63" s="2">
@@ -3209,7 +3218,7 @@
       <c r="C64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="2">
@@ -3249,7 +3258,7 @@
       <c r="C65" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E65" s="2">
@@ -3289,7 +3298,7 @@
       <c r="C66" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E66" s="2">
@@ -3329,7 +3338,7 @@
       <c r="C67" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="2">
@@ -3369,7 +3378,7 @@
       <c r="C68" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E68" s="2">
@@ -3409,7 +3418,7 @@
       <c r="C69" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E69" s="2">
@@ -3449,7 +3458,7 @@
       <c r="C70" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E70" s="2">
@@ -3489,7 +3498,7 @@
       <c r="C71" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E71" s="2">
@@ -3529,7 +3538,7 @@
       <c r="C72" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E72" s="2">
@@ -3569,7 +3578,7 @@
       <c r="C73" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E73" s="2">
@@ -3609,7 +3618,7 @@
       <c r="C74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E74" s="2">
@@ -3649,7 +3658,7 @@
       <c r="C75" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E75" s="2">
@@ -3689,7 +3698,7 @@
       <c r="C76" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E76" s="2">
@@ -3729,7 +3738,7 @@
       <c r="C77" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E77" s="2">
@@ -3769,7 +3778,7 @@
       <c r="C78" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E78" s="2">
@@ -3809,7 +3818,7 @@
       <c r="C79" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E79" s="2">
@@ -3849,7 +3858,7 @@
       <c r="C80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E80" s="2">
@@ -3889,7 +3898,7 @@
       <c r="C81" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="5" t="s">
         <v>106</v>
       </c>
       <c r="E81" s="2">
@@ -3929,7 +3938,7 @@
       <c r="C82" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E82" s="2">
@@ -3969,7 +3978,7 @@
       <c r="C83" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E83" s="2">
@@ -4009,7 +4018,7 @@
       <c r="C84" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E84" s="2">
@@ -4049,7 +4058,7 @@
       <c r="C85" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E85" s="2">
@@ -4089,7 +4098,7 @@
       <c r="C86" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="5" t="s">
         <v>110</v>
       </c>
       <c r="E86" s="2">
@@ -4129,7 +4138,7 @@
       <c r="C87" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E87" s="2">
@@ -4169,7 +4178,7 @@
       <c r="C88" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E88" s="2">
@@ -4209,7 +4218,7 @@
       <c r="C89" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E89" s="2">
@@ -4249,7 +4258,7 @@
       <c r="C90" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E90" s="2">
@@ -4289,7 +4298,7 @@
       <c r="C91" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E91" s="2">
@@ -4329,7 +4338,7 @@
       <c r="C92" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="5" t="s">
         <v>112</v>
       </c>
       <c r="E92" s="2">
@@ -4369,7 +4378,7 @@
       <c r="C93" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E93" s="2">
@@ -4409,7 +4418,7 @@
       <c r="C94" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="5" t="s">
         <v>110</v>
       </c>
       <c r="E94" s="2">
@@ -4449,7 +4458,7 @@
       <c r="C95" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E95" s="2">
@@ -4489,7 +4498,7 @@
       <c r="C96" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E96" s="2">
@@ -4529,7 +4538,7 @@
       <c r="C97" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E97" s="2">
@@ -4569,7 +4578,7 @@
       <c r="C98" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E98" s="2">
@@ -4609,7 +4618,7 @@
       <c r="C99" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E99" s="2">
@@ -4649,7 +4658,7 @@
       <c r="C100" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E100" s="2">
@@ -4689,7 +4698,7 @@
       <c r="C101" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E101" s="2">
@@ -4729,7 +4738,7 @@
       <c r="C102" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E102" s="2">
@@ -4769,7 +4778,7 @@
       <c r="C103" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E103" s="2">
@@ -4809,7 +4818,7 @@
       <c r="C104" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E104" s="2">
@@ -4849,7 +4858,7 @@
       <c r="C105" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="2">
@@ -4889,7 +4898,7 @@
       <c r="C106" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="2">
@@ -4929,7 +4938,7 @@
       <c r="C107" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E107" s="2">
@@ -4969,7 +4978,7 @@
       <c r="C108" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E108" s="2">
@@ -5009,7 +5018,7 @@
       <c r="C109" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E109" s="2">
@@ -5049,7 +5058,7 @@
       <c r="C110" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E110" s="2">
@@ -5089,7 +5098,7 @@
       <c r="C111" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E111" s="2">
@@ -5129,7 +5138,7 @@
       <c r="C112" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E112" s="2">
@@ -5169,7 +5178,7 @@
       <c r="C113" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E113" s="2">
@@ -5209,7 +5218,7 @@
       <c r="C114" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="5" t="s">
         <v>125</v>
       </c>
       <c r="E114" s="2">
@@ -5249,7 +5258,7 @@
       <c r="C115" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E115" s="2">
@@ -5289,7 +5298,7 @@
       <c r="C116" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E116" s="2">
@@ -5329,7 +5338,7 @@
       <c r="C117" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E117" s="2">
@@ -5369,7 +5378,7 @@
       <c r="C118" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="2">

--- a/public/archivos/MPN.xlsx
+++ b/public/archivos/MPN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22918"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\10° Semestre\Integrador-Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD9FFA76-E6FB-4318-B6B5-81651BD77A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11256"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,17 @@
   <definedNames>
     <definedName name="Resultados">Resultados!$A$1:$F$119</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -99,6 +110,9 @@
     <t>7254</t>
   </si>
   <si>
+    <t>asd</t>
+  </si>
+  <si>
     <t>HERRAMIENTAS DE COMPUTO</t>
   </si>
   <si>
@@ -409,16 +423,13 @@
   </si>
   <si>
     <t>FIN ARCHIVO</t>
-  </si>
-  <si>
-    <t>asd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -748,26 +759,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="256" width="9.109375" style="2" customWidth="1"/>
-    <col min="257" max="16384" width="11.44140625" style="2"/>
+    <col min="5" max="5" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="256" width="9.140625" style="2" customWidth="1"/>
+    <col min="257" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -787,7 +798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,7 +838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,7 +858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,7 +878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,7 +898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,7 +938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -947,7 +958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -958,7 +969,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -967,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,7 +989,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -987,38 +998,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1027,18 +1038,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1047,18 +1058,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1067,18 +1078,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1087,18 +1098,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1107,12 +1118,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1127,18 +1138,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1147,38 +1158,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1187,18 +1198,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1207,12 +1218,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
@@ -1227,12 +1238,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>16</v>
@@ -1247,18 +1258,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1267,18 +1278,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1287,18 +1298,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1307,18 +1318,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1327,18 +1338,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1347,38 +1358,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="12.75">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1387,18 +1398,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1407,18 +1418,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1427,18 +1438,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1447,18 +1458,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1467,18 +1478,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1487,38 +1498,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1527,18 +1538,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -1547,18 +1558,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1567,18 +1578,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -1587,12 +1598,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
@@ -1607,12 +1618,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>14</v>
@@ -1627,18 +1638,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -1647,18 +1658,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -1667,12 +1678,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -1687,12 +1698,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
@@ -1707,18 +1718,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -1727,18 +1738,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -1747,18 +1758,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -1767,18 +1778,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -1787,18 +1798,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -1807,12 +1818,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>14</v>
@@ -1827,18 +1838,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -1847,18 +1858,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -1867,18 +1878,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -1887,18 +1898,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -1907,18 +1918,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -1927,18 +1938,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -1947,18 +1958,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -1967,12 +1978,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
@@ -1987,38 +1998,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2027,18 +2038,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -2047,12 +2058,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
@@ -2067,12 +2078,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>16</v>
@@ -2087,18 +2098,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -2107,18 +2118,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -2127,18 +2138,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -2147,18 +2158,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -2167,38 +2178,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="B72" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -2207,18 +2218,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -2227,18 +2238,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -2247,18 +2258,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -2267,18 +2278,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -2287,18 +2298,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -2307,38 +2318,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="1">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -2347,18 +2358,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -2367,12 +2378,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>14</v>
@@ -2387,18 +2398,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -2407,18 +2418,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -2427,18 +2438,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -2447,18 +2458,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -2467,38 +2478,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="B87" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -2507,18 +2518,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -2527,18 +2538,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -2547,12 +2558,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>14</v>
@@ -2567,12 +2578,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>16</v>
@@ -2587,18 +2598,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -2607,18 +2618,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -2627,18 +2638,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -2647,38 +2658,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E95" s="1">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="B96" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -2687,12 +2698,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>16</v>
@@ -2707,18 +2718,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -2727,12 +2738,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>14</v>
@@ -2747,18 +2758,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -2767,18 +2778,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -2787,18 +2798,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -2807,18 +2818,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -2827,18 +2838,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -2847,18 +2858,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -2867,12 +2878,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>14</v>
@@ -2887,12 +2898,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>8</v>
@@ -2907,18 +2918,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -2927,12 +2938,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>16</v>
@@ -2947,18 +2958,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -2967,18 +2978,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -2987,12 +2998,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>14</v>
@@ -3007,18 +3018,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -3027,15 +3038,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>11</v>
@@ -3047,18 +3058,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
@@ -3067,18 +3078,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -3087,18 +3098,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -3107,18 +3118,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -3127,12 +3138,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>8</v>
@@ -3147,9 +3158,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="B120" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/public/archivos/MPN.xlsx
+++ b/public/archivos/MPN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22918"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\10° Semestre\Integrador-Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD9FFA76-E6FB-4318-B6B5-81651BD77A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11256"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
@@ -18,17 +17,7 @@
   <definedNames>
     <definedName name="Resultados">Resultados!$A$1:$F$119</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -110,326 +99,326 @@
     <t>7254</t>
   </si>
   <si>
+    <t>HERRAMIENTAS DE COMPUTO</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>INGENIERÍA AMBIENTAL</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>SEMINARIO DE ORIENTACION ING. AMBIENTAL</t>
+  </si>
+  <si>
+    <t>4118</t>
+  </si>
+  <si>
+    <t>BIODIVERSIDAD Y EVOLUCION</t>
+  </si>
+  <si>
+    <t>4069</t>
+  </si>
+  <si>
+    <t>PROBLEMATICA AMBIENTAL</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>ALGEBRA A</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>QUIMICA A</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>CALCULO A</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>METODOLOGIA DE LA INVESTIGACION</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>INGENIERÍA CIVIL</t>
+  </si>
+  <si>
+    <t>3119</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS DE COMPUTO I</t>
+  </si>
+  <si>
+    <t>3130</t>
+  </si>
+  <si>
+    <t>GEOLOGIA APLICADA A LA ING. CIVIL</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>GEOMETRIA DESCRIPTIVA</t>
+  </si>
+  <si>
+    <t>3191</t>
+  </si>
+  <si>
+    <t>SEMINARIO Y VISITAS DE OBRA I</t>
+  </si>
+  <si>
+    <t>3390</t>
+  </si>
+  <si>
+    <t>SEMINARIO DE ORIENTACION ING. CIVIL</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN COMPUTACIÓN</t>
+  </si>
+  <si>
+    <t>2151</t>
+  </si>
+  <si>
+    <t>MATEMATICAS DISCRETAS I</t>
+  </si>
+  <si>
+    <t>2229</t>
+  </si>
+  <si>
+    <t>PENSAMIENTO ALGORITMICO</t>
+  </si>
+  <si>
+    <t>2150</t>
+  </si>
+  <si>
+    <t>TEMAS SELECTOS DE MATEMATICAS</t>
+  </si>
+  <si>
+    <t>2805</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>SEMINARIO DE ORIENTACION EN COMPUTACION</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN ELECTRICIDAD Y AUTOMATIZACIÓN</t>
+  </si>
+  <si>
+    <t>5676</t>
+  </si>
+  <si>
+    <t>DISEÑO ASISTIDO POR COMPUTADORA</t>
+  </si>
+  <si>
+    <t>5914</t>
+  </si>
+  <si>
+    <t>SEMINARIO DE ORIENTACION IEA</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN GEOINFORMÁTICA</t>
+  </si>
+  <si>
+    <t>3873</t>
+  </si>
+  <si>
+    <t>TECNOLOGIAS PARA EL MANEJO DE DATOS ESPACIALES</t>
+  </si>
+  <si>
+    <t>3874</t>
+  </si>
+  <si>
+    <t>INTRODUCCION A LAS CIENCIAS GEOESPACIALES</t>
+  </si>
+  <si>
+    <t>3859</t>
+  </si>
+  <si>
+    <t>METEOROLOGIA Y CLIMATOLOGIA</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN GEOLOGÍA</t>
+  </si>
+  <si>
+    <t>4590</t>
+  </si>
+  <si>
+    <t>COMPUTACION APLICADA A</t>
+  </si>
+  <si>
+    <t>4588</t>
+  </si>
+  <si>
+    <t>CRISTALOGRAFIA</t>
+  </si>
+  <si>
+    <t>4575</t>
+  </si>
+  <si>
+    <t>GEOLOGIA BASICA I</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN MECATRÓNICA</t>
+  </si>
+  <si>
+    <t>5688</t>
+  </si>
+  <si>
+    <t>HABILIDADES SOCIO AFECTIVAS Y ETICAS</t>
+  </si>
+  <si>
+    <t>5690</t>
+  </si>
+  <si>
+    <t>DIBUJO EN INGENIERIA MECANICA</t>
+  </si>
+  <si>
+    <t>5918</t>
+  </si>
+  <si>
+    <t>SEMINARIO DE ORIENTACION IMT</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN SISTEMAS INTELIGENTES</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN TOPOGRAFÍA Y CONSTRUCCIÓN</t>
+  </si>
+  <si>
+    <t>3618</t>
+  </si>
+  <si>
+    <t>3805</t>
+  </si>
+  <si>
+    <t>DIBUJO PARA INGENIEROS</t>
+  </si>
+  <si>
+    <t>3623</t>
+  </si>
+  <si>
+    <t>INTRODUCCION A LA TOPOGRAFIA Y CONSTRUCCION</t>
+  </si>
+  <si>
+    <t>3602</t>
+  </si>
+  <si>
+    <t>GEOLOGIA</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>INGENIERÍA MECÁNICA</t>
+  </si>
+  <si>
+    <t>5900</t>
+  </si>
+  <si>
+    <t>PRINCIPIOS DE ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>5915</t>
+  </si>
+  <si>
+    <t>SEMINARIO DE ORIENTACION IM</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>INGENIERÍA MECÁNICA ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>5916</t>
+  </si>
+  <si>
+    <t>SEMINARIO DE ORIENTACION IMA</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>INGENIERÍA MECÁNICA ELÉCTRICA</t>
+  </si>
+  <si>
+    <t>5917</t>
+  </si>
+  <si>
+    <t>SEMINARIO DE ORIENTACIÓN IME</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>INGENIERÍA METALÚRGICA Y DE MATERIALES</t>
+  </si>
+  <si>
+    <t>6013</t>
+  </si>
+  <si>
+    <t>6012</t>
+  </si>
+  <si>
+    <t>INTRODUCCION A LOS MATERIALES</t>
+  </si>
+  <si>
+    <t>6010</t>
+  </si>
+  <si>
+    <t>ORIGEN DE LOS MATERIALES</t>
+  </si>
+  <si>
+    <t>FIN ARCHIVO</t>
+  </si>
+  <si>
     <t>asd</t>
-  </si>
-  <si>
-    <t>HERRAMIENTAS DE COMPUTO</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>INGENIERÍA AMBIENTAL</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>SEMINARIO DE ORIENTACION ING. AMBIENTAL</t>
-  </si>
-  <si>
-    <t>4118</t>
-  </si>
-  <si>
-    <t>BIODIVERSIDAD Y EVOLUCION</t>
-  </si>
-  <si>
-    <t>4069</t>
-  </si>
-  <si>
-    <t>PROBLEMATICA AMBIENTAL</t>
-  </si>
-  <si>
-    <t>0041</t>
-  </si>
-  <si>
-    <t>ALGEBRA A</t>
-  </si>
-  <si>
-    <t>0071</t>
-  </si>
-  <si>
-    <t>QUIMICA A</t>
-  </si>
-  <si>
-    <t>0051</t>
-  </si>
-  <si>
-    <t>CALCULO A</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>METODOLOGIA DE LA INVESTIGACION</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>INGENIERÍA CIVIL</t>
-  </si>
-  <si>
-    <t>3119</t>
-  </si>
-  <si>
-    <t>HERRAMIENTAS DE COMPUTO I</t>
-  </si>
-  <si>
-    <t>3130</t>
-  </si>
-  <si>
-    <t>GEOLOGIA APLICADA A LA ING. CIVIL</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>GEOMETRIA DESCRIPTIVA</t>
-  </si>
-  <si>
-    <t>3191</t>
-  </si>
-  <si>
-    <t>SEMINARIO Y VISITAS DE OBRA I</t>
-  </si>
-  <si>
-    <t>3390</t>
-  </si>
-  <si>
-    <t>SEMINARIO DE ORIENTACION ING. CIVIL</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>INGENIERÍA EN COMPUTACIÓN</t>
-  </si>
-  <si>
-    <t>2151</t>
-  </si>
-  <si>
-    <t>MATEMATICAS DISCRETAS I</t>
-  </si>
-  <si>
-    <t>2229</t>
-  </si>
-  <si>
-    <t>PENSAMIENTO ALGORITMICO</t>
-  </si>
-  <si>
-    <t>2150</t>
-  </si>
-  <si>
-    <t>TEMAS SELECTOS DE MATEMATICAS</t>
-  </si>
-  <si>
-    <t>2805</t>
-  </si>
-  <si>
-    <t>HERRAMIENTAS DE SOFTWARE</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>SEMINARIO DE ORIENTACION EN COMPUTACION</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>INGENIERÍA EN ELECTRICIDAD Y AUTOMATIZACIÓN</t>
-  </si>
-  <si>
-    <t>5676</t>
-  </si>
-  <si>
-    <t>DISEÑO ASISTIDO POR COMPUTADORA</t>
-  </si>
-  <si>
-    <t>5914</t>
-  </si>
-  <si>
-    <t>SEMINARIO DE ORIENTACION IEA</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>INGENIERÍA EN GEOINFORMÁTICA</t>
-  </si>
-  <si>
-    <t>3873</t>
-  </si>
-  <si>
-    <t>TECNOLOGIAS PARA EL MANEJO DE DATOS ESPACIALES</t>
-  </si>
-  <si>
-    <t>3874</t>
-  </si>
-  <si>
-    <t>INTRODUCCION A LAS CIENCIAS GEOESPACIALES</t>
-  </si>
-  <si>
-    <t>3859</t>
-  </si>
-  <si>
-    <t>METEOROLOGIA Y CLIMATOLOGIA</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>INGENIERÍA EN GEOLOGÍA</t>
-  </si>
-  <si>
-    <t>4590</t>
-  </si>
-  <si>
-    <t>COMPUTACION APLICADA A</t>
-  </si>
-  <si>
-    <t>4588</t>
-  </si>
-  <si>
-    <t>CRISTALOGRAFIA</t>
-  </si>
-  <si>
-    <t>4575</t>
-  </si>
-  <si>
-    <t>GEOLOGIA BASICA I</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>INGENIERÍA EN MECATRÓNICA</t>
-  </si>
-  <si>
-    <t>5688</t>
-  </si>
-  <si>
-    <t>HABILIDADES SOCIO AFECTIVAS Y ETICAS</t>
-  </si>
-  <si>
-    <t>5690</t>
-  </si>
-  <si>
-    <t>DIBUJO EN INGENIERIA MECANICA</t>
-  </si>
-  <si>
-    <t>5918</t>
-  </si>
-  <si>
-    <t>SEMINARIO DE ORIENTACION IMT</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>INGENIERÍA EN SISTEMAS INTELIGENTES</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>INGENIERÍA EN TOPOGRAFÍA Y CONSTRUCCIÓN</t>
-  </si>
-  <si>
-    <t>3618</t>
-  </si>
-  <si>
-    <t>3805</t>
-  </si>
-  <si>
-    <t>DIBUJO PARA INGENIEROS</t>
-  </si>
-  <si>
-    <t>3623</t>
-  </si>
-  <si>
-    <t>INTRODUCCION A LA TOPOGRAFIA Y CONSTRUCCION</t>
-  </si>
-  <si>
-    <t>3602</t>
-  </si>
-  <si>
-    <t>GEOLOGIA</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>INGENIERÍA MECÁNICA</t>
-  </si>
-  <si>
-    <t>5900</t>
-  </si>
-  <si>
-    <t>PRINCIPIOS DE ADMINISTRACION</t>
-  </si>
-  <si>
-    <t>5915</t>
-  </si>
-  <si>
-    <t>SEMINARIO DE ORIENTACION IM</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>INGENIERÍA MECÁNICA ADMINISTRATIVA</t>
-  </si>
-  <si>
-    <t>5916</t>
-  </si>
-  <si>
-    <t>SEMINARIO DE ORIENTACION IMA</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>INGENIERÍA MECÁNICA ELÉCTRICA</t>
-  </si>
-  <si>
-    <t>5917</t>
-  </si>
-  <si>
-    <t>SEMINARIO DE ORIENTACIÓN IME</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>INGENIERÍA METALÚRGICA Y DE MATERIALES</t>
-  </si>
-  <si>
-    <t>6013</t>
-  </si>
-  <si>
-    <t>6012</t>
-  </si>
-  <si>
-    <t>INTRODUCCION A LOS MATERIALES</t>
-  </si>
-  <si>
-    <t>6010</t>
-  </si>
-  <si>
-    <t>ORIGEN DE LOS MATERIALES</t>
-  </si>
-  <si>
-    <t>FIN ARCHIVO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -759,26 +748,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="256" width="9.140625" style="2" customWidth="1"/>
-    <col min="257" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="256" width="9.109375" style="2" customWidth="1"/>
+    <col min="257" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -798,7 +787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,7 +827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,7 +887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,7 +907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -958,7 +947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -969,7 +958,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -978,7 +967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,7 +978,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -998,38 +987,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1038,18 +1027,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1058,18 +1047,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1078,18 +1067,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1098,18 +1087,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1118,12 +1107,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1138,18 +1127,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1158,38 +1147,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1198,18 +1187,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1218,12 +1207,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
@@ -1238,12 +1227,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>16</v>
@@ -1258,18 +1247,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1278,18 +1267,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1298,18 +1287,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1318,18 +1307,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1338,18 +1327,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1358,38 +1347,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1398,18 +1387,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1418,18 +1407,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1438,18 +1427,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1458,18 +1447,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1478,18 +1467,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1498,19 +1487,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
@@ -1518,18 +1507,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1538,18 +1527,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -1558,18 +1547,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1578,18 +1567,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -1598,12 +1587,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
@@ -1618,12 +1607,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>14</v>
@@ -1638,18 +1627,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -1658,18 +1647,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -1678,12 +1667,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -1698,12 +1687,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
@@ -1718,18 +1707,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -1738,18 +1727,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -1758,18 +1747,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -1778,18 +1767,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -1798,18 +1787,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -1818,12 +1807,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>14</v>
@@ -1838,18 +1827,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -1858,18 +1847,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -1878,18 +1867,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -1898,18 +1887,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -1918,18 +1907,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -1938,18 +1927,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -1958,18 +1947,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -1978,12 +1967,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
@@ -1998,19 +1987,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
@@ -2018,18 +2007,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2038,18 +2027,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -2058,12 +2047,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
@@ -2078,12 +2067,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>16</v>
@@ -2098,18 +2087,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -2118,18 +2107,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -2138,18 +2127,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -2158,18 +2147,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -2178,19 +2167,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
@@ -2198,18 +2187,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -2218,18 +2207,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -2238,18 +2227,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -2258,18 +2247,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -2278,18 +2267,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -2298,18 +2287,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -2318,38 +2307,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="1">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -2358,18 +2347,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -2378,12 +2367,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>14</v>
@@ -2398,18 +2387,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -2418,18 +2407,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -2438,18 +2427,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C84" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -2458,18 +2447,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -2478,38 +2467,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -2518,18 +2507,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -2538,18 +2527,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C89" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -2558,12 +2547,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>14</v>
@@ -2578,12 +2567,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>16</v>
@@ -2598,18 +2587,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C92" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -2618,18 +2607,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C93" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -2638,18 +2627,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -2658,19 +2647,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C95" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="E95" s="1">
         <v>1</v>
       </c>
@@ -2678,18 +2667,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -2698,12 +2687,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>16</v>
@@ -2718,18 +2707,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -2738,12 +2727,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>14</v>
@@ -2758,18 +2747,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -2778,18 +2767,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -2798,18 +2787,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C102" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -2818,18 +2807,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -2838,18 +2827,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -2858,18 +2847,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -2878,12 +2867,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>14</v>
@@ -2898,12 +2887,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>8</v>
@@ -2918,18 +2907,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C108" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -2938,12 +2927,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>16</v>
@@ -2958,18 +2947,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -2978,18 +2967,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -2998,12 +2987,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>14</v>
@@ -3018,18 +3007,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C113" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -3038,15 +3027,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>11</v>
@@ -3058,18 +3047,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
@@ -3078,18 +3067,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C116" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -3098,18 +3087,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -3118,18 +3107,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C118" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -3138,12 +3127,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>8</v>
@@ -3158,9 +3147,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/public/archivos/MPN.xlsx
+++ b/public/archivos/MPN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\10° Semestre\Integrador-Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A833F5E-D401-4EEC-8686-669F699182C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E22D3D-BA31-4E2A-BE3B-626CDB263660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="131">
   <si>
     <t>cve_carrera</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>INTRODUCCION A LOS MATERIALES</t>
+  </si>
+  <si>
+    <t>LAB INTRODUCCION A LOS MATERIALES</t>
   </si>
   <si>
     <t>1007</t>
@@ -776,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.9"/>
@@ -3162,21 +3165,41 @@
         <v>121</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="12.75">
+      <c r="A120" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E119" s="3">
-        <v>1</v>
-      </c>
-      <c r="F119" s="3">
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="12.75">
-      <c r="B120" s="1" t="s">
-        <v>128</v>
+    <row r="121" spans="1:6" ht="12.75">
+      <c r="B121" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3283,7 +3306,7 @@
         <v>30</v>
       </c>
       <c r="T3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="V3" t="s">
         <v>30</v>
@@ -3330,7 +3353,7 @@
         <v>57</v>
       </c>
       <c r="V4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="X4" t="s">
         <v>32</v>
@@ -3365,7 +3388,7 @@
         <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R5" t="s">
         <v>11</v>
@@ -3386,7 +3409,7 @@
         <v>11</v>
       </c>
       <c r="AE5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="4:31">
@@ -3447,7 +3470,7 @@
         <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N7" t="s">
         <v>76</v>
@@ -3456,7 +3479,7 @@
         <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T7" t="s">
         <v>63</v>
@@ -3465,10 +3488,10 @@
         <v>21</v>
       </c>
       <c r="X7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Z7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB7" t="s">
         <v>13</v>

--- a/public/archivos/MPN.xlsx
+++ b/public/archivos/MPN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23007"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\10° Semestre\Integrador-Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E22D3D-BA31-4E2A-BE3B-626CDB263660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A833F5E-D401-4EEC-8686-669F699182C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="130">
   <si>
     <t>cve_carrera</t>
   </si>
@@ -415,9 +415,6 @@
   </si>
   <si>
     <t>INTRODUCCION A LOS MATERIALES</t>
-  </si>
-  <si>
-    <t>LAB INTRODUCCION A LOS MATERIALES</t>
   </si>
   <si>
     <t>1007</t>
@@ -779,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="I118" sqref="I118"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.9"/>
@@ -3165,41 +3162,21 @@
         <v>121</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
         <v>8</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E119" s="3">
-        <v>1</v>
-      </c>
-      <c r="F119" s="3">
-        <v>7</v>
-      </c>
     </row>
     <row r="120" spans="1:6" ht="12.75">
-      <c r="A120" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120" s="3" t="s">
+      <c r="B120" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E120" s="3">
-        <v>1</v>
-      </c>
-      <c r="F120" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="12.75">
-      <c r="B121" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3306,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="T3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V3" t="s">
         <v>30</v>
@@ -3353,7 +3330,7 @@
         <v>57</v>
       </c>
       <c r="V4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X4" t="s">
         <v>32</v>
@@ -3388,7 +3365,7 @@
         <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R5" t="s">
         <v>11</v>
@@ -3409,7 +3386,7 @@
         <v>11</v>
       </c>
       <c r="AE5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="4:31">
@@ -3470,7 +3447,7 @@
         <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N7" t="s">
         <v>76</v>
@@ -3479,7 +3456,7 @@
         <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T7" t="s">
         <v>63</v>
@@ -3488,10 +3465,10 @@
         <v>21</v>
       </c>
       <c r="X7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB7" t="s">
         <v>13</v>

--- a/public/archivos/MPN.xlsx
+++ b/public/archivos/MPN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\10° Semestre\Integrador-Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A833F5E-D401-4EEC-8686-669F699182C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF20B36-7CA0-492D-964E-D09DF61E9753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Resultados">Resultados!$A$1:$F$118</definedName>
+    <definedName name="Resultados">Resultados!$A$1:$F$141</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="154">
   <si>
     <t>cve_carrera</t>
   </si>
@@ -72,6 +72,12 @@
     <t>FISICA A</t>
   </si>
   <si>
+    <t>13544</t>
+  </si>
+  <si>
+    <t>LAB FISICA A</t>
+  </si>
+  <si>
     <t>7202</t>
   </si>
   <si>
@@ -84,6 +90,15 @@
     <t>BIOLOGIA PARA INGENIEROS</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>LAB BIOLOGIA PARA INGENIEROS</t>
+  </si>
+  <si>
     <t>0061</t>
   </si>
   <si>
@@ -96,6 +111,12 @@
     <t>QUIMICA AGROINDUSTRIAL</t>
   </si>
   <si>
+    <t>7254</t>
+  </si>
+  <si>
+    <t>LAB QUIMICA AGROINDUSTRIAL</t>
+  </si>
+  <si>
     <t>7200</t>
   </si>
   <si>
@@ -108,9 +129,6 @@
     <t>SEMINARIO DE ORIENTACION</t>
   </si>
   <si>
-    <t>7254</t>
-  </si>
-  <si>
     <t>INTRODUCCION A LA INGENIERIA AGROINDUSTRIAL</t>
   </si>
   <si>
@@ -141,6 +159,15 @@
     <t>QUIMICA A</t>
   </si>
   <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>LAB QUIMICA A</t>
+  </si>
+  <si>
     <t>0071</t>
   </si>
   <si>
@@ -153,6 +180,12 @@
     <t>PROBLEMATICA AMBIENTAL</t>
   </si>
   <si>
+    <t>LAB PROBLEMATICA AMBIENTAL</t>
+  </si>
+  <si>
+    <t>LAB BIODIVERSIDAD Y EVOLUCION</t>
+  </si>
+  <si>
     <t>1005</t>
   </si>
   <si>
@@ -168,6 +201,9 @@
     <t>3119</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>3130</t>
   </si>
   <si>
@@ -201,6 +237,12 @@
     <t>INGENIERÍA EN COMPUTACIÓN</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>0072</t>
+  </si>
+  <si>
     <t>2151</t>
   </si>
   <si>
@@ -231,15 +273,21 @@
     <t>HERRAMIENTAS DE SOFTWARE</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN ELECTRICIDAD Y AUTOMATIZACIÓN</t>
   </si>
   <si>
     <t>5676</t>
   </si>
   <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
     <t>DISEÑO ASISTIDO POR COMPUTADORA</t>
   </si>
   <si>
@@ -273,12 +321,12 @@
     <t>INTRODUCCION A LAS CIENCIAS GEOESPACIALES</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN GEOLOGÍA</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
     <t>4590</t>
   </si>
   <si>
@@ -294,9 +342,18 @@
     <t>CRISTALOGRAFIA</t>
   </si>
   <si>
+    <t>LAB CRISTALOGRAFIA</t>
+  </si>
+  <si>
     <t>COMPUTACION APLICADA A</t>
   </si>
   <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>LAB COMPUTACION APLICADA A</t>
+  </si>
+  <si>
     <t>80</t>
   </si>
   <si>
@@ -306,6 +363,12 @@
     <t>5688</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
     <t>5690</t>
   </si>
   <si>
@@ -327,7 +390,10 @@
     <t>INGENIERÍA EN SISTEMAS INTELIGENTES</t>
   </si>
   <si>
-    <t>81</t>
+    <t>84</t>
+  </si>
+  <si>
+    <t>2806</t>
   </si>
   <si>
     <t>INGENIERÍA EN TOPOGRAFÍA Y CONSTRUCCIÓN</t>
@@ -363,6 +429,9 @@
     <t>5900</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
     <t>5915</t>
   </si>
   <si>
@@ -372,31 +441,31 @@
     <t>SEMINARIO DE ORIENTACION IM</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
     <t>INGENIERÍA MECÁNICA ADMINISTRATIVA</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>5916</t>
   </si>
   <si>
     <t>SEMINARIO DE ORIENTACION IMA</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>INGENIERÍA MECÁNICA ELÉCTRICA</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>5917</t>
   </si>
   <si>
     <t>SEMINARIO DE ORIENTACION IME</t>
   </si>
   <si>
-    <t>76</t>
+    <t>LAB SEMINARIO DE ORIENTACION IME</t>
   </si>
   <si>
     <t>INGENIERÍA METALÚRGICA Y DE MATERIALES</t>
@@ -414,10 +483,13 @@
     <t>ORIGEN DE LOS MATERIALES</t>
   </si>
   <si>
+    <t>LAB ORIGEN DE LOS MATERIALES</t>
+  </si>
+  <si>
     <t>INTRODUCCION A LOS MATERIALES</t>
   </si>
   <si>
-    <t>1007</t>
+    <t>LAB INTRODUCCION A LOS MATERIALES</t>
   </si>
   <si>
     <t>FIN ARCHIVO</t>
@@ -450,7 +522,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +547,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -488,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -496,6 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.9"/>
@@ -794,7 +873,7 @@
     <col min="257" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -814,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75">
+    <row r="2" spans="1:7" ht="12.75">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -833,8 +912,9 @@
       <c r="F2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75">
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -853,8 +933,9 @@
       <c r="F3" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -871,10 +952,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -891,10 +973,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -911,30 +994,32 @@
         <v>1</v>
       </c>
       <c r="F6" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12.75">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -942,19 +1027,20 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -962,124 +1048,129 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>8</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>9</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.75">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.75">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75">
+      <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12.75">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
@@ -1091,907 +1182,907 @@
         <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
       <c r="F18" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
         <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75">
-      <c r="A19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75">
-      <c r="A20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75">
-      <c r="A21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75">
-      <c r="A22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.75">
-      <c r="A23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.75">
-      <c r="A24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5">
-        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75">
       <c r="A25" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
       </c>
       <c r="F25" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75">
       <c r="A26" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.75">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
       </c>
       <c r="F27" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.75">
+      <c r="A29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.75">
+      <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="B30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.75">
+      <c r="A31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.75">
+      <c r="A32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.75">
+      <c r="A33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75">
+      <c r="A34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.75">
+      <c r="A35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75">
-      <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.75">
-      <c r="A30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
+    <row r="36" spans="1:6" ht="12.75">
+      <c r="A36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.75">
+      <c r="A37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.75">
+      <c r="A38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75">
-      <c r="A31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
+    <row r="39" spans="1:6" ht="12.75">
+      <c r="A39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75">
-      <c r="A32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
+    <row r="40" spans="1:6" ht="12.75">
+      <c r="A40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75">
-      <c r="A33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
+    <row r="41" spans="1:6" ht="12.75">
+      <c r="A41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75">
-      <c r="A34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
+    <row r="42" spans="1:6" ht="12.75">
+      <c r="A42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75">
-      <c r="A35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
+    <row r="43" spans="1:6" ht="12.75">
+      <c r="A43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
         <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="12.75">
-      <c r="A36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="12.75">
-      <c r="A37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="12.75">
-      <c r="A38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="12.75">
-      <c r="A39" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="12.75">
-      <c r="A40" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="12.75">
-      <c r="A41" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="12.75">
-      <c r="A42" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1</v>
-      </c>
-      <c r="F42" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="12.75">
-      <c r="A43" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75">
       <c r="A44" s="5" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E44" s="5">
         <v>1</v>
       </c>
       <c r="F44" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75">
-      <c r="A45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
+      <c r="A45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75">
-      <c r="A46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="A46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.75">
-      <c r="A47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="A47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="12.75">
+      <c r="A48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="12.75">
-      <c r="A48" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.75">
+      <c r="A49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12.75">
+      <c r="A50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="12.75">
+      <c r="A51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="12.75">
-      <c r="A49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="12.75">
-      <c r="A50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="12.75">
-      <c r="A51" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <v>9</v>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75">
       <c r="A52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="C52" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E52" s="5">
         <v>1</v>
       </c>
       <c r="F52" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75">
       <c r="A53" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="C53" s="5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="E53" s="5">
         <v>1</v>
       </c>
       <c r="F53" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75">
       <c r="A54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="C54" s="5" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E54" s="5">
         <v>1</v>
       </c>
       <c r="F54" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="12.75">
+      <c r="A55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="12.75">
+      <c r="A56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="12.75">
-      <c r="A55" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1</v>
-      </c>
-      <c r="F55" s="5">
+    <row r="57" spans="1:6" ht="12.75">
+      <c r="A57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12.75">
-      <c r="A56" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="5">
-        <v>1</v>
-      </c>
-      <c r="F56" s="5">
+    <row r="58" spans="1:6" ht="12.75">
+      <c r="A58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="12.75">
-      <c r="A57" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="5">
-        <v>1</v>
-      </c>
-      <c r="F57" s="5">
+    <row r="59" spans="1:6" ht="12.75">
+      <c r="A59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="12.75">
-      <c r="A58" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="5">
-        <v>1</v>
-      </c>
-      <c r="F58" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="12.75">
-      <c r="A59" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="5" t="s">
+    <row r="60" spans="1:6" ht="12.75">
+      <c r="A60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="5">
-        <v>1</v>
-      </c>
-      <c r="F59" s="5">
+      <c r="D60" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
         <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="12.75">
-      <c r="A60" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="5">
-        <v>1</v>
-      </c>
-      <c r="F60" s="5">
-        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75">
@@ -2002,390 +2093,390 @@
         <v>88</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
         <v>9</v>
       </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="62" spans="1:6" ht="12.75">
-      <c r="A62" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="A62" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="12.75">
+      <c r="A63" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="12.75">
+      <c r="A64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="12.75">
+      <c r="A65" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="12.75">
+      <c r="A66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="12.75">
+      <c r="A67" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="12.75">
+      <c r="A68" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="12.75">
-      <c r="A63" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="12.75">
-      <c r="A64" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="12.75">
-      <c r="A65" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="12.75">
-      <c r="A66" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="E68" s="5">
+        <v>1</v>
+      </c>
+      <c r="F68" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="12.75">
+      <c r="A69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
         <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="12.75">
-      <c r="A67" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="12.75">
-      <c r="A68" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="12.75">
-      <c r="A69" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3">
-        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75">
       <c r="A70" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="C70" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="E70" s="5">
         <v>1</v>
       </c>
       <c r="F70" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75">
       <c r="A71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="C71" s="5" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
       </c>
       <c r="F71" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75">
       <c r="A72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="C72" s="5" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E72" s="5">
         <v>1</v>
       </c>
       <c r="F72" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75">
       <c r="A73" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="C73" s="5" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="E73" s="5">
         <v>1</v>
       </c>
       <c r="F73" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75">
-      <c r="A74" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E74" s="5">
-        <v>1</v>
-      </c>
-      <c r="F74" s="5">
-        <v>5</v>
+      <c r="A74" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="12.75">
-      <c r="A75" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="5" t="s">
+      <c r="A75" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" s="5">
-        <v>1</v>
-      </c>
-      <c r="F75" s="5">
-        <v>6</v>
+      <c r="D75" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="12.75">
-      <c r="A76" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E76" s="5">
-        <v>1</v>
-      </c>
-      <c r="F76" s="5">
-        <v>7</v>
+      <c r="A76" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="12.75">
       <c r="A77" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E77" s="3">
         <v>1</v>
       </c>
       <c r="F77" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75">
       <c r="A78" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E78" s="3">
         <v>1</v>
       </c>
       <c r="F78" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="12.75">
       <c r="A79" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E79" s="3">
         <v>1</v>
       </c>
       <c r="F79" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="12.75">
       <c r="A80" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E80" s="3">
         <v>1</v>
@@ -2396,96 +2487,96 @@
     </row>
     <row r="81" spans="1:6" ht="12.75">
       <c r="A81" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="E81" s="3">
         <v>1</v>
       </c>
       <c r="F81" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="12.75">
       <c r="A82" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
       </c>
       <c r="F82" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="12.75">
       <c r="A83" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E83" s="3">
         <v>1</v>
       </c>
       <c r="F83" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="12.75">
       <c r="A84" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E84" s="3">
         <v>1</v>
       </c>
       <c r="F84" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="12.75">
       <c r="A85" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E85" s="5">
         <v>1</v>
@@ -2496,396 +2587,396 @@
     </row>
     <row r="86" spans="1:6" ht="12.75">
       <c r="A86" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E86" s="5">
         <v>1</v>
       </c>
       <c r="F86" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="12.75">
       <c r="A87" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E87" s="5">
         <v>1</v>
       </c>
       <c r="F87" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="12.75">
       <c r="A88" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="E88" s="5">
         <v>1</v>
       </c>
       <c r="F88" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="12.75">
       <c r="A89" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E89" s="5">
         <v>1</v>
       </c>
       <c r="F89" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="12.75">
       <c r="A90" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E90" s="5">
         <v>1</v>
       </c>
       <c r="F90" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="12.75">
       <c r="A91" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E91" s="5">
         <v>1</v>
       </c>
       <c r="F91" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="12.75">
       <c r="A92" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E92" s="5">
+        <v>1</v>
+      </c>
+      <c r="F92" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12.75">
+      <c r="A93" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E92" s="5">
-        <v>1</v>
-      </c>
-      <c r="F92" s="5">
+      <c r="B93" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="12.75">
-      <c r="A93" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E93" s="5">
-        <v>1</v>
-      </c>
-      <c r="F93" s="5">
-        <v>10</v>
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="12.75">
       <c r="A94" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E94" s="3">
         <v>1</v>
       </c>
       <c r="F94" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="12.75">
       <c r="A95" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E95" s="3">
         <v>1</v>
       </c>
       <c r="F95" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="12.75">
       <c r="A96" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E96" s="3">
         <v>1</v>
       </c>
       <c r="F96" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="12.75">
       <c r="A97" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="E97" s="3">
         <v>1</v>
       </c>
       <c r="F97" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="12.75">
       <c r="A98" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
       </c>
       <c r="F98" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="12.75">
       <c r="A99" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="E99" s="3">
         <v>1</v>
       </c>
       <c r="F99" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="12.75">
       <c r="A100" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="E100" s="3">
         <v>1</v>
       </c>
       <c r="F100" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="12.75">
-      <c r="A101" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C101" s="3" t="s">
+      <c r="A101" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="D101" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="E101" s="5">
+        <v>1</v>
+      </c>
+      <c r="F101" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:6" ht="12.75">
-      <c r="A102" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E102" s="3">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3">
-        <v>10</v>
+      <c r="A102" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="5">
+        <v>1</v>
+      </c>
+      <c r="F102" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="12.75">
       <c r="A103" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E103" s="5">
         <v>1</v>
       </c>
       <c r="F103" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="12.75">
       <c r="A104" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E104" s="5">
         <v>1</v>
       </c>
       <c r="F104" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="12.75">
       <c r="A105" s="5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E105" s="5">
         <v>1</v>
@@ -2894,38 +2985,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="12.75">
+    <row r="106" spans="1:6" ht="14.25" customHeight="1">
       <c r="A106" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E106" s="5">
         <v>1</v>
       </c>
       <c r="F106" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="12.75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="14.25" customHeight="1">
       <c r="A107" s="5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E107" s="5">
         <v>1</v>
@@ -2936,93 +3027,93 @@
     </row>
     <row r="108" spans="1:6" ht="12.75">
       <c r="A108" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E108" s="5">
         <v>1</v>
       </c>
       <c r="F108" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="12.75">
       <c r="A109" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E109" s="5">
         <v>1</v>
       </c>
       <c r="F109" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="12.75">
       <c r="A110" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E110" s="5">
         <v>1</v>
       </c>
       <c r="F110" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="12.75">
       <c r="A111" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>9</v>
+        <v>50</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="E111" s="5">
         <v>1</v>
       </c>
       <c r="F111" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="12.75">
       <c r="A112" s="3" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>9</v>
@@ -3031,41 +3122,41 @@
         <v>1</v>
       </c>
       <c r="F112" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="12.75">
       <c r="A113" s="3" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E113" s="3">
         <v>1</v>
       </c>
       <c r="F113" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="12.75">
       <c r="A114" s="3" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E114" s="3">
         <v>1</v>
@@ -3076,16 +3167,16 @@
     </row>
     <row r="115" spans="1:6" ht="12.75">
       <c r="A115" s="3" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E115" s="3">
         <v>1</v>
@@ -3096,13 +3187,13 @@
     </row>
     <row r="116" spans="1:6" ht="12.75">
       <c r="A116" s="3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>13</v>
@@ -3111,74 +3202,566 @@
         <v>1</v>
       </c>
       <c r="F116" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="12.75">
       <c r="A117" s="3" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="E117" s="3">
         <v>1</v>
       </c>
       <c r="F117" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="12.75">
       <c r="A118" s="3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="E118" s="3">
         <v>1</v>
       </c>
       <c r="F118" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="12.75">
       <c r="A119" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E119" s="3">
         <v>1</v>
       </c>
       <c r="F119" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="12.75">
+      <c r="A120" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="12.75">
-      <c r="B120" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
+    <row r="121" spans="1:6" ht="12.75">
+      <c r="A121" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="12.75">
+      <c r="A122" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="12.75">
+      <c r="A123" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="5">
+        <v>1</v>
+      </c>
+      <c r="F123" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="12.75">
+      <c r="A124" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" s="5">
+        <v>1</v>
+      </c>
+      <c r="F124" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="12.75">
+      <c r="A125" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="5">
+        <v>1</v>
+      </c>
+      <c r="F125" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="12.75">
+      <c r="A126" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="5">
+        <v>1</v>
+      </c>
+      <c r="F126" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="12.75">
+      <c r="A127" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E127" s="5">
+        <v>1</v>
+      </c>
+      <c r="F127" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="12.75">
+      <c r="A128" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" s="5">
+        <v>1</v>
+      </c>
+      <c r="F128" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="12.75">
+      <c r="A129" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="5">
+        <v>1</v>
+      </c>
+      <c r="F129" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="12.75">
+      <c r="A130" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E130" s="5">
+        <v>1</v>
+      </c>
+      <c r="F130" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="12.75">
+      <c r="A131" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E131" s="5">
+        <v>1</v>
+      </c>
+      <c r="F131" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="12.75">
+      <c r="A132" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E132" s="5">
+        <v>1</v>
+      </c>
+      <c r="F132" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="12.75">
+      <c r="A133" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3">
+        <v>2</v>
+      </c>
+      <c r="G133" s="7"/>
+    </row>
+    <row r="134" spans="1:7" ht="12.75">
+      <c r="A134" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F134" s="3">
+        <v>3</v>
+      </c>
+      <c r="G134" s="7"/>
+    </row>
+    <row r="135" spans="1:7" ht="12.75">
+      <c r="A135" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" s="3">
+        <v>4</v>
+      </c>
+      <c r="G135" s="7"/>
+    </row>
+    <row r="136" spans="1:7" ht="12.75">
+      <c r="A136" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1</v>
+      </c>
+      <c r="F136" s="3">
+        <v>4</v>
+      </c>
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" spans="1:7" ht="12.75">
+      <c r="A137" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1</v>
+      </c>
+      <c r="F137" s="3">
+        <v>5</v>
+      </c>
+      <c r="G137" s="7"/>
+    </row>
+    <row r="138" spans="1:7" ht="12.75">
+      <c r="A138" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3">
+        <v>6</v>
+      </c>
+      <c r="G138" s="7"/>
+    </row>
+    <row r="139" spans="1:7" ht="12.75">
+      <c r="A139" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1</v>
+      </c>
+      <c r="F139" s="3">
+        <v>7</v>
+      </c>
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140" spans="1:7" ht="12.75">
+      <c r="A140" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1</v>
+      </c>
+      <c r="F140" s="3">
+        <v>7</v>
+      </c>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="1:7" ht="12.75">
+      <c r="A141" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1</v>
+      </c>
+      <c r="F141" s="3">
+        <v>8</v>
+      </c>
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142" spans="1:7" ht="12.75">
+      <c r="A142" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="12.75">
+      <c r="A143" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1</v>
+      </c>
+      <c r="F143" s="3">
+        <v>8</v>
+      </c>
+      <c r="G143" s="7"/>
+    </row>
+    <row r="144" spans="1:7" ht="12.75">
+      <c r="B144" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="145" ht="12.75"/>
+    <row r="146" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0">
@@ -3224,7 +3807,7 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -3239,7 +3822,7 @@
         <v>9</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
         <v>9</v>
@@ -3262,119 +3845,119 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="R3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="V3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="X3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AE3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="4:31">
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="X4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="4:31">
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
         <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="R5" t="s">
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="X5" t="s">
         <v>11</v>
@@ -3386,202 +3969,202 @@
         <v>11</v>
       </c>
       <c r="AE5" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="4:31">
       <c r="D6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" t="s">
         <v>75</v>
       </c>
-      <c r="P6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" t="s">
-        <v>61</v>
-      </c>
       <c r="V6" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="X6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="4:31">
       <c r="D7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="T7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="X7" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="Z7" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="AB7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="4:31">
       <c r="D8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s">
+        <v>100</v>
+      </c>
+      <c r="R8" t="s">
+        <v>112</v>
+      </c>
+      <c r="T8" t="s">
         <v>78</v>
       </c>
-      <c r="P8" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" t="s">
-        <v>91</v>
-      </c>
-      <c r="T8" t="s">
-        <v>64</v>
-      </c>
       <c r="V8" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="X8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="Z8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AB8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AE8" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="4:31">
       <c r="D9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="R9" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="V9" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="Z9" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="AB9" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="AE9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="4:31">
       <c r="D10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="R10" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="Z10" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="4:31">
       <c r="H11" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/public/archivos/MPN.xlsx
+++ b/public/archivos/MPN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AGUSTIN\Desktop\INSCRIPCIONES\2020-2021-1\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE9E5815-3183-4A22-AE94-BAC01F582A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA3D73E-1336-4178-BC13-C1A84CBB22E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="81">
   <si>
     <t>cve_carrera</t>
   </si>
@@ -53,6 +53,33 @@
     <t>columna</t>
   </si>
   <si>
+    <t>SISTEMAS INTELIGENTES</t>
+  </si>
+  <si>
+    <t>QUIMICA A</t>
+  </si>
+  <si>
+    <t>METODOLOGIA DE LA INVESTIGACION</t>
+  </si>
+  <si>
+    <t>SEMINARIO DE ORIENTACION EN COMPUTACION</t>
+  </si>
+  <si>
+    <t>TEMAS SELECTOS DE MATEMATICAS</t>
+  </si>
+  <si>
+    <t>MATEMATICAS DISCRETAS I</t>
+  </si>
+  <si>
+    <t>PENSAMIENTO ALGORITMICO</t>
+  </si>
+  <si>
+    <t>LAB QUIMICA A</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS DE SOFTWARE</t>
+  </si>
+  <si>
     <t>INGENIERÍA CIVIL</t>
   </si>
   <si>
@@ -65,12 +92,12 @@
     <t>CALCULO A</t>
   </si>
   <si>
+    <t>LAB FISICA A</t>
+  </si>
+  <si>
     <t>FISICA A</t>
   </si>
   <si>
-    <t>METODOLOGIA DE LA INVESTIGACION</t>
-  </si>
-  <si>
     <t>GEOMETRIA DESCRIPTIVA</t>
   </si>
   <si>
@@ -89,9 +116,6 @@
     <t>INGENIERÍA EN GEOLOGÍA</t>
   </si>
   <si>
-    <t>QUIMICA A</t>
-  </si>
-  <si>
     <t>TECNICAS DE COMUNICACION ORAL Y ESCRITA</t>
   </si>
   <si>
@@ -101,15 +125,24 @@
     <t>GEOLOGIA BASICA I</t>
   </si>
   <si>
+    <t>LAB CRISTALOGRAFIA</t>
+  </si>
+  <si>
     <t>CRISTALOGRAFIA</t>
   </si>
   <si>
+    <t>LAB COMPUTACION APLICADA A</t>
+  </si>
+  <si>
     <t>COMPUTACION APLICADA A</t>
   </si>
   <si>
     <t>INGENIERÍA MECÁNICA ELÉCTRICA</t>
   </si>
   <si>
+    <t>LAB LIDERAZGO Y EMPRENDIMIENTO</t>
+  </si>
+  <si>
     <t>LIDERAZGO Y EMPRENDIMIENTO</t>
   </si>
   <si>
@@ -131,12 +164,18 @@
     <t>INGENIERÍA AGROINDUSTRIAL</t>
   </si>
   <si>
+    <t>LAB BIOLOGIA PARA INGENIEROS</t>
+  </si>
+  <si>
     <t>BIOLOGIA PARA INGENIEROS</t>
   </si>
   <si>
     <t>DIBUJO INDUSTRIAL</t>
   </si>
   <si>
+    <t>LAB QUIMICA AGROINDUSTRIAL</t>
+  </si>
+  <si>
     <t>QUIMICA AGROINDUSTRIAL</t>
   </si>
   <si>
@@ -164,36 +203,33 @@
     <t>INGENIERÍA EN COMPUTACIÓN</t>
   </si>
   <si>
-    <t>SEMINARIO DE ORIENTACION EN COMPUTACION</t>
-  </si>
-  <si>
-    <t>TEMAS SELECTOS DE MATEMATICAS</t>
-  </si>
-  <si>
-    <t>MATEMATICAS DISCRETAS I</t>
-  </si>
-  <si>
-    <t>PENSAMIENTO ALGORITMICO</t>
-  </si>
-  <si>
-    <t>HERRAMIENTAS DE SOFTWARE</t>
-  </si>
-  <si>
     <t>INGENIERÍA METALÚRGICA Y DE MATERIALES</t>
   </si>
   <si>
+    <t>LAB ORIGEN DE LOS MATERIALES</t>
+  </si>
+  <si>
     <t>ORIGEN DE LOS MATERIALES</t>
   </si>
   <si>
+    <t>LAB INTRODUCCION A LOS MATERIALES</t>
+  </si>
+  <si>
     <t>INTRODUCCION A LOS MATERIALES</t>
   </si>
   <si>
     <t>INGENIERÍA AMBIENTAL</t>
   </si>
   <si>
+    <t>LAB PROBLEMATICA AMBIENTAL</t>
+  </si>
+  <si>
     <t>PROBLEMATICA AMBIENTAL</t>
   </si>
   <si>
+    <t>LAB BIODIVERSIDAD Y EVOLUCION</t>
+  </si>
+  <si>
     <t>BIODIVERSIDAD Y EVOLUCION</t>
   </si>
   <si>
@@ -240,9 +276,6 @@
   </si>
   <si>
     <t>INTRODUCCION A LAS CIENCIAS GEOESPACIALES</t>
-  </si>
-  <si>
-    <t>INGENIERIA EN SISTEMAS INTELIGENTES</t>
   </si>
 </sst>
 </file>
@@ -385,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +598,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -726,12 +765,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1055,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1092,13 +1134,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1112,13 +1154,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -1132,13 +1174,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -1152,13 +1194,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -1172,13 +1214,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1192,13 +1234,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1212,15 +1254,15 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1">
@@ -1232,13 +1274,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
@@ -1255,13 +1297,13 @@
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1275,13 +1317,13 @@
         <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1292,16 +1334,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1312,16 +1354,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1332,16 +1374,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1352,16 +1394,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1372,16 +1414,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1392,16 +1434,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1412,16 +1454,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1432,16 +1474,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1452,16 +1494,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1472,16 +1514,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1492,16 +1534,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1515,13 +1557,13 @@
         <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1532,16 +1574,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
-        <v>23</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1552,16 +1594,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1572,16 +1614,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1592,16 +1634,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1612,16 +1654,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1635,13 +1677,13 @@
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
-        <v>28</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1652,16 +1694,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1672,16 +1714,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1">
-        <v>30</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1692,16 +1734,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1712,16 +1754,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1732,16 +1774,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1752,16 +1794,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1772,16 +1814,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
-        <v>35</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1795,13 +1837,13 @@
         <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
-        <v>36</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1812,13 +1854,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>20</v>
@@ -1832,13 +1874,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>7</v>
@@ -1852,16 +1894,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1">
-        <v>39</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1872,16 +1914,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -1892,16 +1934,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1912,16 +1954,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1932,16 +1974,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -1952,16 +1994,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -1972,16 +2014,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -1992,16 +2034,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="1">
         <v>31</v>
       </c>
-      <c r="C47" s="1">
-        <v>46</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -2012,16 +2054,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1">
-        <v>47</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -2035,13 +2077,13 @@
         <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1">
-        <v>48</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -2052,16 +2094,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C50" s="1">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -2072,16 +2114,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -2092,16 +2134,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C52" s="1">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -2112,16 +2154,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -2132,16 +2174,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -2152,16 +2194,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="1">
         <v>37</v>
       </c>
-      <c r="C55" s="1">
-        <v>54</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -2172,16 +2214,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C56" s="1">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -2192,16 +2234,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C57" s="1">
-        <v>56</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -2212,16 +2254,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C58" s="1">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -2232,16 +2274,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="1">
         <v>40</v>
       </c>
-      <c r="C59" s="1">
-        <v>58</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -2252,16 +2294,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C60" s="1">
-        <v>59</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -2272,16 +2314,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C61" s="1">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -2292,16 +2334,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C62" s="1">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -2312,16 +2354,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C63" s="1">
-        <v>62</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2332,16 +2374,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C64" s="1">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -2352,16 +2394,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C65" s="1">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -2372,16 +2414,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C66" s="1">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -2392,16 +2434,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C67" s="1">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -2412,16 +2454,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C68" s="1">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -2432,16 +2474,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C69" s="1">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -2452,16 +2494,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C70" s="1">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -2472,16 +2514,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C71" s="1">
-        <v>70</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
@@ -2492,16 +2534,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C72" s="1">
-        <v>71</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -2512,16 +2554,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C73" s="1">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -2532,16 +2574,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C74" s="1">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -2552,16 +2594,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C75" s="1">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -2572,16 +2614,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C76" s="1">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -2592,16 +2634,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C77" s="1">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -2612,16 +2654,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C78" s="1">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -2632,16 +2674,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C79" s="1">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -2652,16 +2694,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C80" s="1">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -2672,16 +2714,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C81" s="1">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
@@ -2692,16 +2734,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C82" s="1">
-        <v>81</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -2712,16 +2754,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C83" s="1">
-        <v>82</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -2732,16 +2774,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C84" s="1">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -2752,16 +2794,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C85" s="1">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -2772,16 +2814,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C86" s="1">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -2792,16 +2834,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C87" s="1">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -2812,16 +2854,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="1">
+        <v>63</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C88" s="1">
-        <v>87</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -2832,16 +2874,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="1">
+        <v>64</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C89" s="1">
-        <v>88</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -2852,16 +2894,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C90" s="1">
-        <v>89</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>8</v>
+        <v>64</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -2872,16 +2914,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C91" s="1">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
@@ -2892,16 +2934,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C92" s="1">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -2912,16 +2954,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C93" s="1">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -2932,16 +2974,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C94" s="1">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -2952,16 +2994,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C95" s="1">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
@@ -2972,16 +3014,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C96" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -2992,16 +3034,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C97" s="1">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
@@ -3012,16 +3054,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C98" s="1">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -3032,16 +3074,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C99" s="1">
-        <v>98</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>8</v>
+        <v>73</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -3052,16 +3094,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C100" s="1">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -3072,16 +3114,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C101" s="1">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -3092,16 +3134,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C102" s="1">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -3112,16 +3154,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C103" s="1">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -3132,16 +3174,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="1">
+        <v>77</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C104" s="1">
-        <v>103</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -3152,16 +3194,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C105" s="1">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -3172,16 +3214,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C106" s="1">
-        <v>105</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -3192,16 +3234,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C107" s="1">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -3212,16 +3254,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C108" s="1">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -3232,16 +3274,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C109" s="1">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
@@ -3252,16 +3294,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C110" s="1">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -3272,16 +3314,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C111" s="1">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -3292,16 +3334,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C112" s="1">
-        <v>111</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>35</v>
+        <v>83</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -3312,16 +3354,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C113" s="1">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -3332,16 +3374,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C114" s="1">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
@@ -3352,16 +3394,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C115" s="1">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
@@ -3372,16 +3414,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C116" s="1">
-        <v>115</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>8</v>
+        <v>86</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -3392,16 +3434,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C117" s="1">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -3412,16 +3454,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C118" s="1">
-        <v>117</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -3432,16 +3474,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C119" s="1">
+        <v>87</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C119" s="1">
-        <v>118</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
@@ -3452,16 +3494,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C120" s="1">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
@@ -3472,16 +3514,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C121" s="1">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
@@ -3492,13 +3534,13 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C122" s="1">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>18</v>
@@ -3512,16 +3554,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C123" s="1">
-        <v>122</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>11</v>
+        <v>91</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
@@ -3532,16 +3574,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C124" s="1">
-        <v>123</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -3552,16 +3594,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C125" s="1">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
@@ -3572,16 +3614,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C126" s="1">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
@@ -3592,16 +3634,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C127" s="1">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
@@ -3612,111 +3654,663 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C128" s="1">
+        <v>94</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>78</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C129" s="1">
+        <v>95</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>78</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C130" s="1">
+        <v>96</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>80</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C128" s="1">
-        <v>127</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E128" s="1">
-        <v>1</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129"/>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130"/>
-      <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131"/>
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
+      <c r="C131" s="1">
+        <v>97</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132"/>
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="E132"/>
-      <c r="F132"/>
+      <c r="A132" s="1">
+        <v>80</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C132" s="1">
+        <v>98</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133"/>
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
+      <c r="A133" s="1">
+        <v>80</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" s="1">
+        <v>99</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134"/>
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
+      <c r="A134" s="1">
+        <v>80</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C134" s="1">
+        <v>100</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135"/>
-      <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135"/>
+      <c r="A135" s="1">
+        <v>81</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C135" s="1">
+        <v>101</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136"/>
-      <c r="B136"/>
-      <c r="C136"/>
-      <c r="D136"/>
-      <c r="E136"/>
-      <c r="F136"/>
+      <c r="A136" s="1">
+        <v>82</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" s="1">
+        <v>102</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137"/>
-      <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
-      <c r="F137"/>
+      <c r="A137" s="1">
+        <v>80</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C137" s="1">
+        <v>101</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138"/>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
+      <c r="A138" s="1">
+        <v>80</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C138" s="1">
+        <v>102</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139"/>
-      <c r="B139"/>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
+      <c r="A139" s="1">
+        <v>80</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" s="1">
+        <v>103</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>80</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140" s="1">
+        <v>104</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>80</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C141" s="1">
+        <v>105</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>81</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C142" s="1">
+        <v>106</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>81</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C143" s="1">
+        <v>107</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>81</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C144" s="1">
+        <v>108</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>81</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C145" s="1">
+        <v>109</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>81</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C146" s="1">
+        <v>110</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>81</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C147" s="1">
+        <v>111</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>81</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C148" s="1">
+        <v>112</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>81</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C149" s="1">
+        <v>113</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>82</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C150" s="1">
+        <v>114</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>82</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C151" s="1">
+        <v>115</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>82</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C152" s="1">
+        <v>116</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>82</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C153" s="1">
+        <v>117</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>82</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C154" s="1">
+        <v>118</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>82</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C155" s="1">
+        <v>119</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>82</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C156" s="1">
+        <v>120</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159"/>
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160"/>
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162"/>
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163"/>
+      <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164"/>
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165"/>
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/archivos/MPN.xlsx
+++ b/public/archivos/MPN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anggel_vkz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Horarios reales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9396A3-F58E-4DEC-ADCD-18164AB8DF5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7464034-4C57-411D-8FAE-F729EC579934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
     <t>INTRODUCCION A LAS CIENCIAS GEOESPACIALES</t>
   </si>
   <si>
-    <t>INGENIERÍA SISTEMAS INTELIGENTES</t>
+    <t>INGENIERÍA EN SISTEMAS INTELIGENTES</t>
   </si>
 </sst>
 </file>
@@ -1130,19 +1130,19 @@
   <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="72.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="49.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="72.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="49.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>83</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>83</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>83</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>83</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>83</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>83</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>84</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>83</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>63</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>63</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>63</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>62</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>63</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>63</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>63</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>63</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>63</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>63</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>63</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>64</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>64</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>65</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>64</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>64</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>64</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>64</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>64</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>65</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>64</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>65</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>64</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>65</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>65</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>65</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>66</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>67</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>65</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>65</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>66</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>65</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>65</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>65</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>65</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>67</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>67</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>67</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>68</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>69</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>67</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>67</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>67</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>67</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>67</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>67</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>68</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>69</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>68</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>68</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>69</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>68</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>68</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>69</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>68</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>68</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>68</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>68</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>69</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>69</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>69</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>69</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>69</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>69</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>72</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>72</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>72</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>73</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>74</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>72</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>72</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>72</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>72</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>72</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>72</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>75</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>75</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>75</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>75</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>75</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>75</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>76</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>76</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>77</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>76</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>76</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>76</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>77</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>76</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>77</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>76</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>76</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>77</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>77</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>77</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>78</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>77</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>77</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>77</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>78</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>77</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>78</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>77</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>78</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>78</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>78</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>79</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>80</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>78</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>78</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>78</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>78</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>78</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>78</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>80</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>80</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>80</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>80</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>81</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>82</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>80</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>80</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>80</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>80</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>80</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>81</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>81</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>81</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>81</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>81</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>81</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>81</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>81</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>82</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>82</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>82</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>82</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>82</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>82</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>82</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
@@ -4270,7 +4270,7 @@
       <c r="E158"/>
       <c r="F158"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
@@ -4278,7 +4278,7 @@
       <c r="E159"/>
       <c r="F159"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -4286,7 +4286,7 @@
       <c r="E160"/>
       <c r="F160"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -4294,7 +4294,7 @@
       <c r="E161"/>
       <c r="F161"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
@@ -4302,7 +4302,7 @@
       <c r="E162"/>
       <c r="F162"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
@@ -4310,7 +4310,7 @@
       <c r="E163"/>
       <c r="F163"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
@@ -4318,7 +4318,7 @@
       <c r="E164"/>
       <c r="F164"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -4326,7 +4326,7 @@
       <c r="E165"/>
       <c r="F165"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
@@ -4334,7 +4334,7 @@
       <c r="E166"/>
       <c r="F166"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
